--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,116 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github repository\project-3-moodle-demo-selenium\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A09360-7FC2-4C46-8C22-3C883A5563D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9EA3547C-74EF-4064-9303-074C94EA267C}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="teacher_login" sheetId="1" r:id="rId1"/>
-    <sheet name="teacher_logout" sheetId="5" r:id="rId2"/>
-    <sheet name="add_new_event" sheetId="2" r:id="rId3"/>
-    <sheet name="enroll_user" sheetId="3" r:id="rId4"/>
+    <sheet name="teacher_login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="teacher_logout" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="add_new_event" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="enroll_user" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>expected_result</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>moodle</t>
-  </si>
-  <si>
-    <t>teacher1122</t>
-  </si>
-  <si>
-    <t>moodle3344</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>Home | Mount Orange School</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My courses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log in to the site </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="163"/>
       <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,44 +87,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,121 +531,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F305ACD0-B1C1-4B8E-8C6E-EE5ADEC689A5}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col width="8.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="35.88671875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="11.21875" bestFit="1" customWidth="1" style="3" min="3" max="4"/>
+    <col width="15.6640625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="28.21875" customWidth="1" style="3" min="6" max="6"/>
+    <col width="8.88671875" customWidth="1" style="3" min="7" max="14"/>
+    <col width="8.88671875" customWidth="1" style="3" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>expected_result</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>actual_result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>moodle</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My courses </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>moodle</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Log in to the site </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Log in to the site </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Log in to the site </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>teacher1122</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>moodle3344</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Log in to the site </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,97 +747,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22AE571-BBB2-432F-A84B-3B2E1BA1C0D3}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col width="8.109375" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="35.88671875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="9" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="29.109375" customWidth="1" style="8" min="5" max="5"/>
+    <col width="37.109375" customWidth="1" style="8" min="6" max="6"/>
+    <col width="8.88671875" customWidth="1" style="8" min="7" max="14"/>
+    <col width="8.88671875" customWidth="1" style="8" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected_result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actual_result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>logout</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>https://school.moodledemo.net/?lang=en</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>moodle</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="9" t="n"/>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,24 +904,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EB5DDA-862B-4F66-955F-0280FF9947F4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FA1C8C-7700-4A0A-AF2A-D584935547D5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
